--- a/test/1.xlsx
+++ b/test/1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
   <si>
     <t>Field</t>
   </si>
@@ -172,6 +172,18 @@
   </si>
   <si>
     <t>admin console</t>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -278,7 +290,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -293,9 +305,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -604,20 +613,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.75" customWidth="1"/>
+    <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.25" customWidth="1"/>
+    <col min="7" max="7" width="24.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" thickBot="1">
+    <row r="1" spans="1:7" ht="17.25" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,10 +643,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" thickBot="1">
+    <row r="2" spans="1:7" ht="17.25" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -644,293 +662,377 @@
       <c r="C2" s="4">
         <v>32</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A3" s="7" t="s">
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="8">
-        <v>32</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10" t="s">
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7">
+        <v>32</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="8">
-        <v>32</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10" t="s">
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7">
+        <v>32</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="8">
-        <v>32</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10" t="s">
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7">
+        <v>32</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="24.75" thickBot="1">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:7" ht="24.75" thickBot="1">
+      <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10" t="s">
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="8">
-        <v>32</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10" t="s">
+      <c r="B9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7">
+        <v>32</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="8">
-        <v>32</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10" t="s">
+      <c r="B10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="7">
+        <v>32</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="12">
-        <v>32</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="13" t="s">
+      <c r="B11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="11">
+        <v>32</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="8">
+      <c r="B12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="7">
         <v>250</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="8">
+      <c r="B13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="7">
         <v>250</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A14" s="7" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8">
+        <v>1</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="14">
-        <v>32</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10" t="s">
+      <c r="B14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="13">
+        <v>32</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="14">
-        <v>32</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10" t="s">
+      <c r="B15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="13">
+        <v>32</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8">
+        <v>1</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="8">
+      <c r="B16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="7">
         <v>4000</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="8">
+      <c r="B17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="7">
         <v>4000</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10" t="s">
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="14">
-        <v>32</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10" t="s">
+      <c r="B18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="13">
+        <v>32</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="12">
-        <v>32</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="13" t="s">
+      <c r="B19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="11">
+        <v>32</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8">
+        <v>1</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A20" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="14">
+      <c r="B20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="13">
         <v>10</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10" t="s">
+      <c r="D20" s="13"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8">
+        <v>1</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A21" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="8">
-        <v>1</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10" t="s">
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8">
+        <v>1</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>48</v>
       </c>
     </row>

--- a/test/1.xlsx
+++ b/test/1.xlsx
@@ -28,10 +28,10 @@
     <t>Scale</t>
   </si>
   <si>
+    <t>NULL</t>
+  </si>
+  <si>
     <t>Key</t>
-  </si>
-  <si>
-    <t>NULL</t>
   </si>
   <si>
     <t>Comments</t>
@@ -178,7 +178,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,44 +187,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans KR"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans KR"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFbfbfbf"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFffffff"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -233,94 +210,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFcccccc"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFcccccc"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFcccccc"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -639,13 +563,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="18" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="19" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="20" width="6.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="19" width="5.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="18" width="6.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="21" width="6.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="18" width="24.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="6.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="5.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="6.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="6.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="24.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="27.75" customFormat="1" s="1">
@@ -661,397 +585,397 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18" customFormat="1" s="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7">
-        <v>32</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8" t="s">
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9">
-        <v>0</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18" customFormat="1" s="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="12">
-        <v>32</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14">
-        <v>1</v>
-      </c>
-      <c r="G3" s="15" t="s">
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18" customFormat="1" s="1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="12">
-        <v>32</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14">
-        <v>1</v>
-      </c>
-      <c r="G4" s="15" t="s">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="27.75" customFormat="1" s="1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14">
-        <v>1</v>
-      </c>
-      <c r="G5" s="15" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="27.75" customFormat="1" s="1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14">
-        <v>1</v>
-      </c>
-      <c r="G6" s="15" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18" customFormat="1" s="1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="12">
-        <v>32</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14">
-        <v>1</v>
-      </c>
-      <c r="G7" s="15" t="s">
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="29.25" customFormat="1" s="1">
-      <c r="A8" s="10" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="36" customFormat="1" s="1">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14">
-        <v>1</v>
-      </c>
-      <c r="G8" s="15" t="s">
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18" customFormat="1" s="1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="12">
-        <v>32</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14">
-        <v>1</v>
-      </c>
-      <c r="G9" s="15" t="s">
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4">
+        <v>32</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18" customFormat="1" s="1">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="12">
-        <v>32</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14">
-        <v>1</v>
-      </c>
-      <c r="G10" s="15" t="s">
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4">
+        <v>32</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18" customFormat="1" s="1">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="16">
-        <v>32</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="13" t="s">
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="14">
-        <v>1</v>
-      </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18" customFormat="1" s="1">
-      <c r="A12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="12">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4">
         <v>250</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14">
-        <v>1</v>
-      </c>
-      <c r="G12" s="15" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18" customFormat="1" s="1">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="12">
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4">
         <v>250</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14">
-        <v>1</v>
-      </c>
-      <c r="G13" s="15" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18" customFormat="1" s="1">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="12">
-        <v>32</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="15" t="s">
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="4">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18" customFormat="1" s="1">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="12">
-        <v>32</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14">
-        <v>1</v>
-      </c>
-      <c r="G15" s="15" t="s">
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4">
+        <v>32</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18" customFormat="1" s="1">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="12">
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4">
         <v>4000</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14">
-        <v>1</v>
-      </c>
-      <c r="G16" s="15" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18" customFormat="1" s="1">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="12">
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4">
         <v>4000</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14">
-        <v>1</v>
-      </c>
-      <c r="G17" s="15" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18" customFormat="1" s="1">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="12">
-        <v>32</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14">
-        <v>1</v>
-      </c>
-      <c r="G18" s="15" t="s">
+      <c r="B18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="4">
+        <v>32</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18" customFormat="1" s="1">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="16">
-        <v>32</v>
-      </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14">
-        <v>1</v>
-      </c>
-      <c r="G19" s="15" t="s">
+      <c r="B19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="4">
+        <v>32</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="28.5" customFormat="1" s="1">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="12">
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="4">
         <v>10</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14">
-        <v>1</v>
-      </c>
-      <c r="G20" s="15" t="s">
+      <c r="D20" s="3"/>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18" customFormat="1" s="1">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="12">
-        <v>1</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14">
-        <v>1</v>
-      </c>
-      <c r="G21" s="15" t="s">
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="2" t="s">
         <v>51</v>
       </c>
     </row>
